--- a/REF/HCAD_RealPropertyCodes.xlsx
+++ b/REF/HCAD_RealPropertyCodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\HCAD_TAZ_METRO\REF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CB5E3D4-4C36-49B8-BD7B-D389970790B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16623273-94BE-4893-A6A1-4EDA28B2D4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{E41E7234-0860-4BB2-8F05-2A9873A88A22}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E41E7234-0860-4BB2-8F05-2A9873A88A22}"/>
   </bookViews>
   <sheets>
     <sheet name="Bldg Type" sheetId="1" r:id="rId1"/>
@@ -3186,6 +3186,42 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A01D63F7-4EBA-47AF-9554-8DC8C0D63B35}" name="Type_Codes" displayName="Type_Codes" ref="A1:C718" totalsRowShown="0">
+  <autoFilter ref="A1:C718" xr:uid="{A01D63F7-4EBA-47AF-9554-8DC8C0D63B35}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E2ABE722-8E28-4978-88A9-EA0B7876F74C}" name="Code Index"/>
+    <tableColumn id="2" xr3:uid="{F7B2B7CE-CFAC-4F12-ACE5-20700A6BB4C4}" name="Type-Code"/>
+    <tableColumn id="3" xr3:uid="{F0F90C75-BCA5-4ECF-855A-75D538F74D36}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{66F02597-4CFD-432B-A8EE-99C791A979E3}" name="Type_StateClass" displayName="Type_StateClass" ref="A1:D64" totalsRowShown="0">
+  <autoFilter ref="A1:D64" xr:uid="{66F02597-4CFD-432B-A8EE-99C791A979E3}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E1E0C1BD-6093-44A3-93BE-C3903F7C2717}" name="Code Index"/>
+    <tableColumn id="2" xr3:uid="{F9796DC3-E73C-40BF-936E-DA1D0AF44B15}" name="Code"/>
+    <tableColumn id="3" xr3:uid="{8D6D69C7-9276-4E2F-BF80-091620FDF606}" name="Dept"/>
+    <tableColumn id="4" xr3:uid="{D1E6BEBF-E883-4ABC-A26E-C05FAB43C196}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{33A1EA4E-6D6A-4C74-9EEA-4E48CF87065A}" name="Type_MKTA" displayName="Type_MKTA" ref="A1:B572" totalsRowShown="0">
+  <autoFilter ref="A1:B572" xr:uid="{33A1EA4E-6D6A-4C74-9EEA-4E48CF87065A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{21458FE8-984F-43DC-9E37-4A6C381A77DC}" name="MktArea"/>
+    <tableColumn id="2" xr3:uid="{3BB44319-170C-4A57-A763-CB8C3644F188}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3507,13 +3543,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393CEA72-5197-4239-BB97-B3E8A020A1A7}">
   <dimension ref="A1:C718"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A655" workbookViewId="0">
+      <selection sqref="A1:C718"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
     <col min="3" max="3" width="36.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11417,6 +11454,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -11425,7 +11465,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection sqref="A1:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12332,6 +12372,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -12339,12 +12382,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B46C27A-CD8F-4ED8-B541-64DF67858EB0}">
   <dimension ref="A1:B572"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D169" sqref="D169"/>
+    <sheetView tabSelected="1" topLeftCell="A560" workbookViewId="0">
+      <selection activeCell="F573" sqref="F573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
     <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16926,5 +16970,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/REF/HCAD_RealPropertyCodes.xlsx
+++ b/REF/HCAD_RealPropertyCodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\HCAD_TAZ_METRO\REF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16623273-94BE-4893-A6A1-4EDA28B2D4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569FA781-E832-4835-9550-A15C06588768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E41E7234-0860-4BB2-8F05-2A9873A88A22}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E41E7234-0860-4BB2-8F05-2A9873A88A22}"/>
   </bookViews>
   <sheets>
     <sheet name="Bldg Type" sheetId="1" r:id="rId1"/>
@@ -3543,8 +3543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393CEA72-5197-4239-BB97-B3E8A020A1A7}">
   <dimension ref="A1:C718"/>
   <sheetViews>
-    <sheetView topLeftCell="A655" workbookViewId="0">
-      <selection sqref="A1:C718"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12382,8 +12382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B46C27A-CD8F-4ED8-B541-64DF67858EB0}">
   <dimension ref="A1:B572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A560" workbookViewId="0">
-      <selection activeCell="F573" sqref="F573"/>
+    <sheetView topLeftCell="A545" workbookViewId="0">
+      <selection activeCell="F574" sqref="F574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
